--- a/framework/Database/Results_Multi_Optim/all_aircraft_paretos.xlsx
+++ b/framework/Database/Results_Multi_Optim/all_aircraft_paretos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarc8\Documents\github\MDOAirB_base\framework\Database\Results_Multi_Optim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD5ACF3-F8CE-4F43-BB59-9D59F6712769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFACC621-8ECF-4024-B185-41F7A9A2E336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{96969692-F904-4D7C-B927-5E527CA39290}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,9 +875,6 @@
       <c r="AB6">
         <v>-3.5113501944283301</v>
       </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
       <c r="AD6">
         <v>6.0870189541943596</v>
       </c>
@@ -971,7 +968,7 @@
         <v>-1.9883403302479401</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>8.2074084609133298</v>
